--- a/datos_prueba/usuarios.xlsx
+++ b/datos_prueba/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dc875ace3202bf3/Documentos/Python/App_webb_Pedidos/datos_prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3C05472E5EE7F72413088B35299F063" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C6C6B1-9910-44B2-B8AB-D39C84F1BFB0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3C05472E5EE7F72413088B35299F063" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E4D015-B36D-411D-908D-FB1224C85CC8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>rol</t>
   </si>
   <si>
-    <t>contraseña</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -68,13 +65,16 @@
   </si>
   <si>
     <t>4421</t>
+  </si>
+  <si>
+    <t>contrasena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -437,7 +446,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,22 +458,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -472,10 +481,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -483,10 +492,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -494,10 +503,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -505,19 +514,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
